--- a/app/Licenciatura_em_Traducao_Ingles_Portugues.xlsx
+++ b/app/Licenciatura_em_Traducao_Ingles_Portugues.xlsx
@@ -9,41 +9,38 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="20154795" sheetId="2" r:id="rId5"/>
-    <sheet name="20154338" sheetId="3" r:id="rId6"/>
-    <sheet name="20154334" sheetId="4" r:id="rId7"/>
-    <sheet name="20154340" sheetId="5" r:id="rId8"/>
-    <sheet name="20154328" sheetId="6" r:id="rId9"/>
-    <sheet name="20154319" sheetId="7" r:id="rId10"/>
-    <sheet name="20154317" sheetId="8" r:id="rId11"/>
-    <sheet name="20154322" sheetId="9" r:id="rId12"/>
-    <sheet name="20154315" sheetId="10" r:id="rId13"/>
-    <sheet name="20154335" sheetId="11" r:id="rId14"/>
-    <sheet name="20154323" sheetId="12" r:id="rId15"/>
-    <sheet name="20154342" sheetId="13" r:id="rId16"/>
-    <sheet name="20154318" sheetId="14" r:id="rId17"/>
-    <sheet name="20154336" sheetId="15" r:id="rId18"/>
-    <sheet name="20154779" sheetId="16" r:id="rId19"/>
-    <sheet name="20154329" sheetId="17" r:id="rId20"/>
-    <sheet name="20154320" sheetId="18" r:id="rId21"/>
-    <sheet name="20154339" sheetId="19" r:id="rId22"/>
-    <sheet name="20154337" sheetId="20" r:id="rId23"/>
-    <sheet name="20154499" sheetId="21" r:id="rId24"/>
-    <sheet name="20154327" sheetId="22" r:id="rId25"/>
-    <sheet name="20154330" sheetId="23" r:id="rId26"/>
-    <sheet name="20154332" sheetId="24" r:id="rId27"/>
-    <sheet name="20154324" sheetId="25" r:id="rId28"/>
-    <sheet name="20154316" sheetId="26" r:id="rId29"/>
-    <sheet name="20154314" sheetId="27" r:id="rId30"/>
-    <sheet name="20154331" sheetId="28" r:id="rId31"/>
-    <sheet name="20154333" sheetId="29" r:id="rId32"/>
-    <sheet name="20154341" sheetId="30" r:id="rId33"/>
-    <sheet name="20154321" sheetId="31" r:id="rId34"/>
-    <sheet name="20154325" sheetId="32" r:id="rId35"/>
-    <sheet name="20154313" sheetId="33" r:id="rId36"/>
-    <sheet name="20154326" sheetId="34" r:id="rId37"/>
-    <sheet name="Sheet2" sheetId="35" r:id="rId38"/>
-    <sheet name="Sheet3" sheetId="36" r:id="rId39"/>
+    <sheet name="20154338" sheetId="2" r:id="rId5"/>
+    <sheet name="20154334" sheetId="3" r:id="rId6"/>
+    <sheet name="20154340" sheetId="4" r:id="rId7"/>
+    <sheet name="20154328" sheetId="5" r:id="rId8"/>
+    <sheet name="20154319" sheetId="6" r:id="rId9"/>
+    <sheet name="20154317" sheetId="7" r:id="rId10"/>
+    <sheet name="20154322" sheetId="8" r:id="rId11"/>
+    <sheet name="20154315" sheetId="9" r:id="rId12"/>
+    <sheet name="20154335" sheetId="10" r:id="rId13"/>
+    <sheet name="20154323" sheetId="11" r:id="rId14"/>
+    <sheet name="20154342" sheetId="12" r:id="rId15"/>
+    <sheet name="20154318" sheetId="13" r:id="rId16"/>
+    <sheet name="20154336" sheetId="14" r:id="rId17"/>
+    <sheet name="20154329" sheetId="15" r:id="rId18"/>
+    <sheet name="20154320" sheetId="16" r:id="rId19"/>
+    <sheet name="20154339" sheetId="17" r:id="rId20"/>
+    <sheet name="20154337" sheetId="18" r:id="rId21"/>
+    <sheet name="20154327" sheetId="19" r:id="rId22"/>
+    <sheet name="20154330" sheetId="20" r:id="rId23"/>
+    <sheet name="20154332" sheetId="21" r:id="rId24"/>
+    <sheet name="20154324" sheetId="22" r:id="rId25"/>
+    <sheet name="20154316" sheetId="23" r:id="rId26"/>
+    <sheet name="20154314" sheetId="24" r:id="rId27"/>
+    <sheet name="20154331" sheetId="25" r:id="rId28"/>
+    <sheet name="20154333" sheetId="26" r:id="rId29"/>
+    <sheet name="20154341" sheetId="27" r:id="rId30"/>
+    <sheet name="20154321" sheetId="28" r:id="rId31"/>
+    <sheet name="20154325" sheetId="29" r:id="rId32"/>
+    <sheet name="20154313" sheetId="30" r:id="rId33"/>
+    <sheet name="20154326" sheetId="31" r:id="rId34"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId35"/>
+    <sheet name="Sheet3" sheetId="33" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -51,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -179,724 +176,667 @@
     <t>Universidade Eduardo Mondlane</t>
   </si>
   <si>
+    <t>Faculdade de Letras e Ciências Sociais</t>
+  </si>
+  <si>
     <t>Licenciatura em Tradução Inglês/Português</t>
   </si>
   <si>
-    <t>Zua</t>
-  </si>
-  <si>
-    <t>Daniel José</t>
+    <t>Vicente</t>
+  </si>
+  <si>
+    <t>Pereira Eugenio</t>
+  </si>
+  <si>
+    <t>1993-04-27</t>
+  </si>
+  <si>
+    <t>Eugenio Vicente</t>
+  </si>
+  <si>
+    <t>Isabel Paninga</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Moçambique</t>
+  </si>
+  <si>
+    <t>Solteiro</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>110604057580N</t>
+  </si>
+  <si>
+    <t>+258846319426</t>
+  </si>
+  <si>
+    <t>Outra - Cid.Maputo</t>
+  </si>
+  <si>
+    <t>Ubisse</t>
+  </si>
+  <si>
+    <t>Mendes Alexandre</t>
+  </si>
+  <si>
+    <t>1991-11-03</t>
+  </si>
+  <si>
+    <t>Alexandre Dinis Ubisse</t>
+  </si>
+  <si>
+    <t>Cipriana Tembe Ubisse</t>
+  </si>
+  <si>
+    <t>110300315314F</t>
+  </si>
+  <si>
+    <t>+258823474315</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Noroeste 1</t>
+  </si>
+  <si>
+    <t>Timba</t>
+  </si>
+  <si>
+    <t>Arlindo Alberto</t>
+  </si>
+  <si>
+    <t>1995-11-15</t>
+  </si>
+  <si>
+    <t>Alberto Timba</t>
+  </si>
+  <si>
+    <t>Maria Isabel Hanifa</t>
+  </si>
+  <si>
+    <t>1101011259824B</t>
+  </si>
+  <si>
+    <t>+258845168310</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Eduardo Mondlane</t>
+  </si>
+  <si>
+    <t>Semo</t>
+  </si>
+  <si>
+    <t>Ramisio Bento</t>
+  </si>
+  <si>
+    <t>1986-03-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bento Semo </t>
+  </si>
+  <si>
+    <t>Julia Antonio</t>
+  </si>
+  <si>
+    <t>Talao de Carta de Conducao</t>
+  </si>
+  <si>
+    <t>+258848304041</t>
+  </si>
+  <si>
+    <t>Escola Secundaria de Tete</t>
+  </si>
+  <si>
+    <t>Saveca</t>
+  </si>
+  <si>
+    <t>Andre Filimao</t>
+  </si>
+  <si>
+    <t>1988-05-14</t>
+  </si>
+  <si>
+    <t>Andre Saveca</t>
+  </si>
+  <si>
+    <t>Andasse Simango</t>
+  </si>
+  <si>
+    <t>110101047084M</t>
+  </si>
+  <si>
+    <t>+258844621559</t>
+  </si>
+  <si>
+    <t>Outra - Gaza</t>
+  </si>
+  <si>
+    <t>Saete</t>
+  </si>
+  <si>
+    <t>Sidónio Jaime</t>
+  </si>
+  <si>
+    <t>1995-03-31</t>
+  </si>
+  <si>
+    <t>LÍdia Joana Saete</t>
+  </si>
+  <si>
+    <t>11030406774I</t>
+  </si>
+  <si>
+    <t>+258827729613</t>
+  </si>
+  <si>
+    <t>Escola Secundaria de Malhazine</t>
+  </si>
+  <si>
+    <t>Rodrigues</t>
+  </si>
+  <si>
+    <t>Kelton Melvin De Vitorino</t>
+  </si>
+  <si>
+    <t>1997-03-01</t>
+  </si>
+  <si>
+    <t>Francisco J. Rodrigues Junior</t>
+  </si>
+  <si>
+    <t>Maria C. Chemica Vitorino</t>
+  </si>
+  <si>
+    <t>110104226130Q</t>
+  </si>
+  <si>
+    <t>+258825110608</t>
+  </si>
+  <si>
+    <t>Escola Francisco Manyanga</t>
+  </si>
+  <si>
+    <t>Pola</t>
+  </si>
+  <si>
+    <t>Carmona</t>
+  </si>
+  <si>
+    <t>1997-03-22</t>
+  </si>
+  <si>
+    <t>Macario Carmona Pola</t>
+  </si>
+  <si>
+    <t>Esperanca Virgilio</t>
+  </si>
+  <si>
+    <t>+258840751463</t>
+  </si>
+  <si>
+    <t>Escola Secundaria 25 de Setembro</t>
+  </si>
+  <si>
+    <t>Nhancale</t>
+  </si>
+  <si>
+    <t>Sarmento Carlos</t>
+  </si>
+  <si>
+    <t>1992-12-23</t>
+  </si>
+  <si>
+    <t>Carlos Sarmento Nhacale</t>
+  </si>
+  <si>
+    <t>Elisa Joana Mandlate</t>
+  </si>
+  <si>
+    <t>110101932405I</t>
+  </si>
+  <si>
+    <t>+258829357571</t>
+  </si>
+  <si>
+    <t>Escola Secundaria de Laulane</t>
+  </si>
+  <si>
+    <t>Ndava</t>
+  </si>
+  <si>
+    <t>Estevao Americo</t>
+  </si>
+  <si>
+    <t>1991-05-23</t>
+  </si>
+  <si>
+    <t>Americo Estevao Ndava</t>
+  </si>
+  <si>
+    <t>Teresa Francisco Djeve</t>
+  </si>
+  <si>
+    <t>110500619536N</t>
+  </si>
+  <si>
+    <t>+258829730607</t>
+  </si>
+  <si>
+    <t>Outra - Prov Maputo</t>
+  </si>
+  <si>
+    <t>Muneiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cremildo Castro </t>
+  </si>
+  <si>
+    <t>1983-07-26</t>
+  </si>
+  <si>
+    <t>Castro Ilacinho Muneiro</t>
+  </si>
+  <si>
+    <t>Isabel Eduardo Sumbane</t>
+  </si>
+  <si>
+    <t>110200168976J</t>
+  </si>
+  <si>
+    <t>+258842012110</t>
+  </si>
+  <si>
+    <t>Escola Josina Machel</t>
+  </si>
+  <si>
+    <t>Mucanze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dionildes De Andrade </t>
+  </si>
+  <si>
+    <t>1996-01-22</t>
+  </si>
+  <si>
+    <t>Felimone Mucanze</t>
+  </si>
+  <si>
+    <t>Isabel Tsenane</t>
+  </si>
+  <si>
+    <t>100100205040M</t>
+  </si>
+  <si>
+    <t>+258846966872</t>
+  </si>
+  <si>
+    <t>Escola Secundaria da Matola</t>
+  </si>
+  <si>
+    <t>Monteiro</t>
+  </si>
+  <si>
+    <t>Leonelia Raquel Henrique</t>
+  </si>
+  <si>
+    <t>1995-05-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henrique Do E. S. Monteiro  </t>
+  </si>
+  <si>
+    <t>Maria Alberto Cumbula</t>
+  </si>
+  <si>
+    <t>Feminino</t>
+  </si>
+  <si>
+    <t>110101639040N</t>
+  </si>
+  <si>
+    <t>+258821230517</t>
+  </si>
+  <si>
+    <t>Modas</t>
+  </si>
+  <si>
+    <t>MÍlicia JÉssica Neto</t>
+  </si>
+  <si>
+    <t>1996-09-01</t>
+  </si>
+  <si>
+    <t>Paulo Modas Alfazema</t>
+  </si>
+  <si>
+    <t>Iza AntÓnio Neto Bomba</t>
+  </si>
+  <si>
+    <t>030101370892P</t>
+  </si>
+  <si>
+    <t>+258849352628</t>
+  </si>
+  <si>
+    <t>Escola Secundaria de Muatala</t>
+  </si>
+  <si>
+    <t>Matsinhe</t>
+  </si>
+  <si>
+    <t>António  Aurélio  Matsinhe</t>
+  </si>
+  <si>
+    <t>1991-07-05</t>
+  </si>
+  <si>
+    <t>AurÉlio Matsinhe</t>
+  </si>
+  <si>
+    <t>Rosalina Lote Matsinhe</t>
+  </si>
+  <si>
+    <t>110101940311P</t>
+  </si>
+  <si>
+    <t>+258847609295</t>
+  </si>
+  <si>
+    <t>Massango</t>
+  </si>
+  <si>
+    <t>Nilza Ivone</t>
+  </si>
+  <si>
+    <t>1996-10-23</t>
+  </si>
+  <si>
+    <t>Ivone Ricardo Massango</t>
+  </si>
+  <si>
+    <t>110102762439F</t>
+  </si>
+  <si>
+    <t>+258845891585</t>
+  </si>
+  <si>
+    <t>Mandlate</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>1995-07-17</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>LetÍcia JoÃo Mandlate</t>
+  </si>
+  <si>
+    <t>110501948501F</t>
+  </si>
+  <si>
+    <t>+258823576018</t>
+  </si>
+  <si>
+    <t>Mahira</t>
+  </si>
+  <si>
+    <t>Emanuel Alberto</t>
+  </si>
+  <si>
+    <t>1984-09-28</t>
+  </si>
+  <si>
+    <t>Alberto Mahira</t>
+  </si>
+  <si>
+    <t>Fatima Manuel Bento Roda</t>
+  </si>
+  <si>
+    <t>100400624710M</t>
+  </si>
+  <si>
+    <t>+258845474328</t>
+  </si>
+  <si>
+    <t>Macuacua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valter Casimiro </t>
+  </si>
+  <si>
+    <t>1994-05-29</t>
+  </si>
+  <si>
+    <t>Casimiro Jose Macuacua</t>
+  </si>
+  <si>
+    <t>Quiteria Francisco Xerind</t>
+  </si>
+  <si>
+    <t>110101754135F</t>
+  </si>
+  <si>
+    <t>+258846449984</t>
+  </si>
+  <si>
+    <t>Machava</t>
+  </si>
+  <si>
+    <t>Isaura Martilena Salvador</t>
+  </si>
+  <si>
+    <t>1994-06-28</t>
+  </si>
+  <si>
+    <t>Salvador Valente Machava</t>
+  </si>
+  <si>
+    <t>Regina Justino Nhambele Machava</t>
+  </si>
+  <si>
+    <t>110102502375J</t>
+  </si>
+  <si>
+    <t>+258824494736</t>
+  </si>
+  <si>
+    <t>Macamo</t>
+  </si>
+  <si>
+    <t>Jose Joaquim</t>
+  </si>
+  <si>
+    <t>1997-07-27</t>
+  </si>
+  <si>
+    <t>Joaquim Mouzinho Macamo</t>
+  </si>
+  <si>
+    <t>Joana Joaquim Mahumane</t>
+  </si>
+  <si>
+    <t>110504028336I</t>
+  </si>
+  <si>
+    <t>+258843435624</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Quisse Mavota</t>
+  </si>
+  <si>
+    <t>Litebe</t>
+  </si>
+  <si>
+    <t>Helio Filipe</t>
+  </si>
+  <si>
+    <t>1990-07-19</t>
+  </si>
+  <si>
+    <t>Filipe Paulo Litebe</t>
+  </si>
+  <si>
+    <t>Herminia Alberto Macande</t>
+  </si>
+  <si>
+    <t>Passaporte</t>
+  </si>
+  <si>
+    <t>10AA83708</t>
+  </si>
+  <si>
+    <t>+258826909984</t>
+  </si>
+  <si>
+    <t>Filipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frederico Amadeu </t>
+  </si>
+  <si>
+    <t>1972-02-13</t>
+  </si>
+  <si>
+    <t>Amadeu Filipe</t>
+  </si>
+  <si>
+    <t>Isabel Nipalaena</t>
+  </si>
+  <si>
+    <t>050100731601C</t>
+  </si>
+  <si>
+    <t>+258840792291</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Nemesia Renata Fernando</t>
+  </si>
+  <si>
+    <t>1997-03-16</t>
+  </si>
+  <si>
+    <t>Fernando Felix  Mussa</t>
+  </si>
+  <si>
+    <t>Rema Kuanenda Simba</t>
+  </si>
+  <si>
+    <t>020101426806A</t>
+  </si>
+  <si>
+    <t>+258846132697</t>
+  </si>
+  <si>
+    <t>Outra - Prov.Cabo Delgado</t>
+  </si>
+  <si>
+    <t>Engenheiro</t>
+  </si>
+  <si>
+    <t>Cassimo Arcanjo</t>
+  </si>
+  <si>
+    <t>1995-02-03</t>
+  </si>
+  <si>
+    <t>Arcanjo Engenheiro</t>
+  </si>
+  <si>
+    <t>Etelvina Artur</t>
+  </si>
+  <si>
+    <t>051000441516C</t>
+  </si>
+  <si>
+    <t>+258826453222</t>
+  </si>
+  <si>
+    <t>Outra - Prov Tete</t>
+  </si>
+  <si>
+    <t>Chimica</t>
+  </si>
+  <si>
+    <t>Shantell  Barroso</t>
+  </si>
+  <si>
+    <t>1998-07-17</t>
+  </si>
+  <si>
+    <t>Colca Barroso Chimica</t>
+  </si>
+  <si>
+    <t>Carolina Ricardo Banda</t>
+  </si>
+  <si>
+    <t>050100420101Q</t>
+  </si>
+  <si>
+    <t>+258843091889</t>
+  </si>
+  <si>
+    <t>Bila</t>
+  </si>
+  <si>
+    <t>Valter Paulo Rogerio</t>
+  </si>
+  <si>
+    <t>1994-03-18</t>
+  </si>
+  <si>
+    <t>Rogerio Afonso Bila</t>
+  </si>
+  <si>
+    <t>Rosa Lourino Langa</t>
+  </si>
+  <si>
+    <t>110100458067N</t>
+  </si>
+  <si>
+    <t>+258828112449</t>
+  </si>
+  <si>
+    <t>Balata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santos Joao </t>
+  </si>
+  <si>
+    <t>1983-06-15</t>
+  </si>
+  <si>
+    <t>Joao Santos Balata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabel Augusto </t>
+  </si>
+  <si>
+    <t>081101486232I</t>
+  </si>
+  <si>
+    <t>+258824310362</t>
+  </si>
+  <si>
+    <t>Escola Secundaria de Cambine</t>
+  </si>
+  <si>
+    <t>Bacar</t>
+  </si>
+  <si>
+    <t>Ija Ali</t>
   </si>
   <si>
     <t>+</t>
-  </si>
-  <si>
-    <t>Faculdade de Letras e Ciências Sociais</t>
-  </si>
-  <si>
-    <t>Vicente</t>
-  </si>
-  <si>
-    <t>Pereira Eugenio</t>
-  </si>
-  <si>
-    <t>1993-04-27</t>
-  </si>
-  <si>
-    <t>Eugenio Vicente</t>
-  </si>
-  <si>
-    <t>Isabel Paninga</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Katembe</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>Moçambique</t>
-  </si>
-  <si>
-    <t>Solteiro</t>
-  </si>
-  <si>
-    <t>BI</t>
-  </si>
-  <si>
-    <t>110604057580N</t>
-  </si>
-  <si>
-    <t>+258846319426</t>
-  </si>
-  <si>
-    <t>Outra - Cid.Maputo</t>
-  </si>
-  <si>
-    <t>Ubisse</t>
-  </si>
-  <si>
-    <t>Mendes Alexandre</t>
-  </si>
-  <si>
-    <t>1991-11-03</t>
-  </si>
-  <si>
-    <t>Alexandre Dinis Ubisse</t>
-  </si>
-  <si>
-    <t>Cipriana Tembe Ubisse</t>
-  </si>
-  <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
-    <t>110300315314F</t>
-  </si>
-  <si>
-    <t>+258823474315</t>
-  </si>
-  <si>
-    <t>Escola Secundaria Noroeste 1</t>
-  </si>
-  <si>
-    <t>Timba</t>
-  </si>
-  <si>
-    <t>Arlindo Alberto</t>
-  </si>
-  <si>
-    <t>1995-11-15</t>
-  </si>
-  <si>
-    <t>Alberto Timba</t>
-  </si>
-  <si>
-    <t>Maria Isabel Hanifa</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
-    <t>1101011259824B</t>
-  </si>
-  <si>
-    <t>+258845168310</t>
-  </si>
-  <si>
-    <t>Escola Secundaria Eduardo Mondlane</t>
-  </si>
-  <si>
-    <t>Semo</t>
-  </si>
-  <si>
-    <t>Ramisio Bento</t>
-  </si>
-  <si>
-    <t>1986-03-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bento Semo </t>
-  </si>
-  <si>
-    <t>Julia Antonio</t>
-  </si>
-  <si>
-    <t>Distrito de Moatize</t>
-  </si>
-  <si>
-    <t>Talao de Carta de Conducao</t>
-  </si>
-  <si>
-    <t>+258848304041</t>
-  </si>
-  <si>
-    <t>Escola Secundaria de Tete</t>
-  </si>
-  <si>
-    <t>Saveca</t>
-  </si>
-  <si>
-    <t>Andre Filimao</t>
-  </si>
-  <si>
-    <t>1988-05-14</t>
-  </si>
-  <si>
-    <t>Andre Saveca</t>
-  </si>
-  <si>
-    <t>Andasse Simango</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
-    <t>110101047084M</t>
-  </si>
-  <si>
-    <t>+258844621559</t>
-  </si>
-  <si>
-    <t>Outra - Gaza</t>
-  </si>
-  <si>
-    <t>Saete</t>
-  </si>
-  <si>
-    <t>Sidónio Jaime</t>
-  </si>
-  <si>
-    <t>1995-03-31</t>
-  </si>
-  <si>
-    <t>LÍdia Joana Saete</t>
-  </si>
-  <si>
-    <t>11030406774I</t>
-  </si>
-  <si>
-    <t>+258827729613</t>
-  </si>
-  <si>
-    <t>Escola Secundaria de Malhazine</t>
-  </si>
-  <si>
-    <t>Rodrigues</t>
-  </si>
-  <si>
-    <t>Kelton Melvin De Vitorino</t>
-  </si>
-  <si>
-    <t>1997-03-01</t>
-  </si>
-  <si>
-    <t>Francisco J. Rodrigues Junior</t>
-  </si>
-  <si>
-    <t>Maria C. Chemica Vitorino</t>
-  </si>
-  <si>
-    <t>110104226130Q</t>
-  </si>
-  <si>
-    <t>+258825110608</t>
-  </si>
-  <si>
-    <t>Escola Francisco Manyanga</t>
-  </si>
-  <si>
-    <t>Pola</t>
-  </si>
-  <si>
-    <t>Carmona</t>
-  </si>
-  <si>
-    <t>1997-03-22</t>
-  </si>
-  <si>
-    <t>Macario Carmona Pola</t>
-  </si>
-  <si>
-    <t>Esperanca Virgilio</t>
-  </si>
-  <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
-    <t>+258840751463</t>
-  </si>
-  <si>
-    <t>Escola Secundaria 25 de Setembro</t>
-  </si>
-  <si>
-    <t>Nhancale</t>
-  </si>
-  <si>
-    <t>Sarmento Carlos</t>
-  </si>
-  <si>
-    <t>1992-12-23</t>
-  </si>
-  <si>
-    <t>Carlos Sarmento Nhacale</t>
-  </si>
-  <si>
-    <t>Elisa Joana Mandlate</t>
-  </si>
-  <si>
-    <t>110101932405I</t>
-  </si>
-  <si>
-    <t>+258829357571</t>
-  </si>
-  <si>
-    <t>Escola Secundaria de Laulane</t>
-  </si>
-  <si>
-    <t>Ndava</t>
-  </si>
-  <si>
-    <t>Estevao Americo</t>
-  </si>
-  <si>
-    <t>1991-05-23</t>
-  </si>
-  <si>
-    <t>Americo Estevao Ndava</t>
-  </si>
-  <si>
-    <t>Teresa Francisco Djeve</t>
-  </si>
-  <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
-    <t>110500619536N</t>
-  </si>
-  <si>
-    <t>+258829730607</t>
-  </si>
-  <si>
-    <t>Outra - Prov Maputo</t>
-  </si>
-  <si>
-    <t>Muneiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cremildo Castro </t>
-  </si>
-  <si>
-    <t>1983-07-26</t>
-  </si>
-  <si>
-    <t>Castro Ilacinho Muneiro</t>
-  </si>
-  <si>
-    <t>Isabel Eduardo Sumbane</t>
-  </si>
-  <si>
-    <t>110200168976J</t>
-  </si>
-  <si>
-    <t>+258842012110</t>
-  </si>
-  <si>
-    <t>Escola Josina Machel</t>
-  </si>
-  <si>
-    <t>Mucanze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dionildes De Andrade </t>
-  </si>
-  <si>
-    <t>1996-01-22</t>
-  </si>
-  <si>
-    <t>Felimone Mucanze</t>
-  </si>
-  <si>
-    <t>Isabel Tsenane</t>
-  </si>
-  <si>
-    <t>100100205040M</t>
-  </si>
-  <si>
-    <t>+258846966872</t>
-  </si>
-  <si>
-    <t>Escola Secundaria da Matola</t>
-  </si>
-  <si>
-    <t>Monteiro</t>
-  </si>
-  <si>
-    <t>Leonelia Raquel Henrique</t>
-  </si>
-  <si>
-    <t>1995-05-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henrique Do E. S. Monteiro  </t>
-  </si>
-  <si>
-    <t>Maria Alberto Cumbula</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
-    <t>Feminino</t>
-  </si>
-  <si>
-    <t>110101639040N</t>
-  </si>
-  <si>
-    <t>+258821230517</t>
-  </si>
-  <si>
-    <t>Monjane</t>
-  </si>
-  <si>
-    <t>Maria Leonarda Justino</t>
-  </si>
-  <si>
-    <t>Modas</t>
-  </si>
-  <si>
-    <t>MÍlicia JÉssica Neto</t>
-  </si>
-  <si>
-    <t>1996-09-01</t>
-  </si>
-  <si>
-    <t>Paulo Modas Alfazema</t>
-  </si>
-  <si>
-    <t>Iza AntÓnio Neto Bomba</t>
-  </si>
-  <si>
-    <t>Cidade de Nampula</t>
-  </si>
-  <si>
-    <t>030101370892P</t>
-  </si>
-  <si>
-    <t>+258849352628</t>
-  </si>
-  <si>
-    <t>Escola Secundaria de Muatala</t>
-  </si>
-  <si>
-    <t>Matsinhe</t>
-  </si>
-  <si>
-    <t>António  Aurélio  Matsinhe</t>
-  </si>
-  <si>
-    <t>1991-07-05</t>
-  </si>
-  <si>
-    <t>AurÉlio Matsinhe</t>
-  </si>
-  <si>
-    <t>Rosalina Lote Matsinhe</t>
-  </si>
-  <si>
-    <t>110101940311P</t>
-  </si>
-  <si>
-    <t>+258847609295</t>
-  </si>
-  <si>
-    <t>Massango</t>
-  </si>
-  <si>
-    <t>Nilza Ivone</t>
-  </si>
-  <si>
-    <t>1996-10-23</t>
-  </si>
-  <si>
-    <t>Ivone Ricardo Massango</t>
-  </si>
-  <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
-    <t>110102762439F</t>
-  </si>
-  <si>
-    <t>+258845891585</t>
-  </si>
-  <si>
-    <t>Mandlate</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>1995-07-17</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>LetÍcia JoÃo Mandlate</t>
-  </si>
-  <si>
-    <t>110501948501F</t>
-  </si>
-  <si>
-    <t>+258823576018</t>
-  </si>
-  <si>
-    <t>Malhaze</t>
-  </si>
-  <si>
-    <t>Jeronimo Andre</t>
-  </si>
-  <si>
-    <t>Mahira</t>
-  </si>
-  <si>
-    <t>Emanuel Alberto</t>
-  </si>
-  <si>
-    <t>1984-09-28</t>
-  </si>
-  <si>
-    <t>Alberto Mahira</t>
-  </si>
-  <si>
-    <t>Fatima Manuel Bento Roda</t>
-  </si>
-  <si>
-    <t>Distrito de Manhiça</t>
-  </si>
-  <si>
-    <t>100400624710M</t>
-  </si>
-  <si>
-    <t>+258845474328</t>
-  </si>
-  <si>
-    <t>Macuacua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valter Casimiro </t>
-  </si>
-  <si>
-    <t>1994-05-29</t>
-  </si>
-  <si>
-    <t>Casimiro Jose Macuacua</t>
-  </si>
-  <si>
-    <t>Quiteria Francisco Xerind</t>
-  </si>
-  <si>
-    <t>110101754135F</t>
-  </si>
-  <si>
-    <t>+258846449984</t>
-  </si>
-  <si>
-    <t>Machava</t>
-  </si>
-  <si>
-    <t>Isaura Martilena Salvador</t>
-  </si>
-  <si>
-    <t>1994-06-28</t>
-  </si>
-  <si>
-    <t>Salvador Valente Machava</t>
-  </si>
-  <si>
-    <t>Regina Justino Nhambele Machava</t>
-  </si>
-  <si>
-    <t>110102502375J</t>
-  </si>
-  <si>
-    <t>+258824494736</t>
-  </si>
-  <si>
-    <t>Macamo</t>
-  </si>
-  <si>
-    <t>Jose Joaquim</t>
-  </si>
-  <si>
-    <t>1997-07-27</t>
-  </si>
-  <si>
-    <t>Joaquim Mouzinho Macamo</t>
-  </si>
-  <si>
-    <t>Joana Joaquim Mahumane</t>
-  </si>
-  <si>
-    <t>110504028336I</t>
-  </si>
-  <si>
-    <t>+258843435624</t>
-  </si>
-  <si>
-    <t>Escola Secundaria Quisse Mavota</t>
-  </si>
-  <si>
-    <t>Litebe</t>
-  </si>
-  <si>
-    <t>Helio Filipe</t>
-  </si>
-  <si>
-    <t>1990-07-19</t>
-  </si>
-  <si>
-    <t>Filipe Paulo Litebe</t>
-  </si>
-  <si>
-    <t>Herminia Alberto Macande</t>
-  </si>
-  <si>
-    <t>Passaporte</t>
-  </si>
-  <si>
-    <t>10AA83708</t>
-  </si>
-  <si>
-    <t>+258826909984</t>
-  </si>
-  <si>
-    <t>Filipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frederico Amadeu </t>
-  </si>
-  <si>
-    <t>1972-02-13</t>
-  </si>
-  <si>
-    <t>Amadeu Filipe</t>
-  </si>
-  <si>
-    <t>Isabel Nipalaena</t>
-  </si>
-  <si>
-    <t>Cidade de Tete</t>
-  </si>
-  <si>
-    <t>050100731601C</t>
-  </si>
-  <si>
-    <t>+258840792291</t>
-  </si>
-  <si>
-    <t>Felix</t>
-  </si>
-  <si>
-    <t>Nemesia Renata Fernando</t>
-  </si>
-  <si>
-    <t>1997-03-16</t>
-  </si>
-  <si>
-    <t>Fernando Felix  Mussa</t>
-  </si>
-  <si>
-    <t>Rema Kuanenda Simba</t>
-  </si>
-  <si>
-    <t>Cidade de Pemba</t>
-  </si>
-  <si>
-    <t>020101426806A</t>
-  </si>
-  <si>
-    <t>+258846132697</t>
-  </si>
-  <si>
-    <t>Outra - Prov.Cabo Delgado</t>
-  </si>
-  <si>
-    <t>Engenheiro</t>
-  </si>
-  <si>
-    <t>Cassimo Arcanjo</t>
-  </si>
-  <si>
-    <t>1995-02-03</t>
-  </si>
-  <si>
-    <t>Arcanjo Engenheiro</t>
-  </si>
-  <si>
-    <t>Etelvina Artur</t>
-  </si>
-  <si>
-    <t>051000441516C</t>
-  </si>
-  <si>
-    <t>+258826453222</t>
-  </si>
-  <si>
-    <t>Outra - Prov Tete</t>
-  </si>
-  <si>
-    <t>Chimica</t>
-  </si>
-  <si>
-    <t>Shantell  Barroso</t>
-  </si>
-  <si>
-    <t>1998-07-17</t>
-  </si>
-  <si>
-    <t>Colca Barroso Chimica</t>
-  </si>
-  <si>
-    <t>Carolina Ricardo Banda</t>
-  </si>
-  <si>
-    <t>050100420101Q</t>
-  </si>
-  <si>
-    <t>+258843091889</t>
-  </si>
-  <si>
-    <t>Bila</t>
-  </si>
-  <si>
-    <t>Valter Paulo Rogerio</t>
-  </si>
-  <si>
-    <t>1994-03-18</t>
-  </si>
-  <si>
-    <t>Rogerio Afonso Bila</t>
-  </si>
-  <si>
-    <t>Rosa Lourino Langa</t>
-  </si>
-  <si>
-    <t>110100458067N</t>
-  </si>
-  <si>
-    <t>+258828112449</t>
-  </si>
-  <si>
-    <t>Balata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santos Joao </t>
-  </si>
-  <si>
-    <t>1983-06-15</t>
-  </si>
-  <si>
-    <t>Joao Santos Balata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isabel Augusto </t>
-  </si>
-  <si>
-    <t>081101486232I</t>
-  </si>
-  <si>
-    <t>+258824310362</t>
-  </si>
-  <si>
-    <t>Escola Secundaria de Cambine</t>
-  </si>
-  <si>
-    <t>Bacar</t>
-  </si>
-  <si>
-    <t>Ija Ali</t>
   </si>
   <si>
     <t>Arnaldo</t>
@@ -2102,7 +2042,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2116,7 +2056,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -2153,7 +2093,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154315</v>
+        <v>20154335</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2177,7 +2117,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2193,7 +2133,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2209,7 +2149,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2225,7 +2165,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2241,7 +2181,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2256,9 +2196,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>116</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2266,7 +2204,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2277,7 +2215,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2286,7 +2224,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2298,15 +2236,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>4010</v>
+      <c r="H17" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2402,7 +2340,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2429,7 +2367,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -2445,7 +2383,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2697,7 +2635,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2711,7 +2649,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -2748,7 +2686,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154335</v>
+        <v>20154323</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2772,7 +2710,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2788,7 +2726,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2804,7 +2742,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2820,7 +2758,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2836,7 +2774,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2851,9 +2789,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2861,7 +2797,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2872,7 +2808,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2881,7 +2817,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2893,7 +2829,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2901,7 +2837,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2997,7 +2933,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3024,7 +2960,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3040,7 +2976,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3292,7 +3228,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -3306,7 +3242,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -3343,7 +3279,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154323</v>
+        <v>20154342</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3367,7 +3303,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3383,7 +3319,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3399,7 +3335,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3415,7 +3351,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3431,7 +3367,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3446,9 +3382,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>132</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3456,7 +3390,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3467,7 +3401,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3476,7 +3410,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3488,7 +3422,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3496,7 +3430,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3592,7 +3526,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3619,7 +3553,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3635,7 +3569,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3887,7 +3821,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -3901,7 +3835,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -3938,7 +3872,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154342</v>
+        <v>20154318</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3962,7 +3896,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3978,7 +3912,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3994,7 +3928,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4010,7 +3944,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4026,7 +3960,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4041,9 +3975,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4051,7 +3983,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4062,7 +3994,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4071,7 +4003,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4083,7 +4015,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4091,7 +4023,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4187,7 +4119,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4214,7 +4146,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4230,7 +4162,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4482,7 +4414,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -4496,7 +4428,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -4533,7 +4465,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154318</v>
+        <v>20154336</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4557,7 +4489,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4573,7 +4505,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4589,7 +4521,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4605,7 +4537,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4621,7 +4553,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4636,9 +4568,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>132</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4646,7 +4576,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4657,7 +4587,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4666,7 +4596,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4678,7 +4608,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4686,7 +4616,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4782,7 +4712,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4809,7 +4739,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4825,7 +4755,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5077,7 +5007,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -5091,7 +5021,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -5128,7 +5058,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154336</v>
+        <v>20154329</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5152,7 +5082,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5168,7 +5098,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5184,7 +5114,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5200,7 +5130,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5216,7 +5146,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5231,9 +5161,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>157</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5241,7 +5169,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5252,7 +5180,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5261,7 +5189,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5273,7 +5201,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5281,7 +5209,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5377,7 +5305,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5404,7 +5332,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5420,7 +5348,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5671,7 +5599,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -5684,7 +5614,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -5721,7 +5651,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154779</v>
+        <v>20154320</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5745,7 +5675,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5761,7 +5691,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5776,7 +5706,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>160</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -5790,7 +5722,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -5804,7 +5738,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>162</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -5825,7 +5761,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -5834,14 +5772,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -5851,13 +5793,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>163</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -5952,7 +5898,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5978,7 +5924,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2012</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -5992,7 +5940,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -6243,7 +6193,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -6257,7 +6207,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -6294,7 +6244,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154329</v>
+        <v>20154339</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6318,7 +6268,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6334,7 +6284,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6350,7 +6300,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6365,9 +6315,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>166</v>
-      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -6382,7 +6330,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6397,9 +6345,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>168</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6407,7 +6353,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6418,7 +6364,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6427,7 +6373,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6439,7 +6385,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6570,7 +6516,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6586,7 +6532,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6838,7 +6784,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -6852,7 +6798,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -6889,7 +6835,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154320</v>
+        <v>20154337</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6913,7 +6859,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6929,7 +6875,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6945,7 +6891,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6961,7 +6907,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6977,7 +6923,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6992,9 +6938,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7002,7 +6946,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7013,7 +6957,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7022,7 +6966,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7034,7 +6978,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7042,7 +6986,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7138,7 +7082,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7181,7 +7125,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7433,7 +7377,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -7447,7 +7391,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -7484,7 +7428,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154339</v>
+        <v>20154327</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7508,7 +7452,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7524,7 +7468,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7540,7 +7484,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7555,7 +7499,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>181</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -7585,9 +7531,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>183</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7595,7 +7539,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7606,7 +7550,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7615,7 +7559,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7627,7 +7571,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7635,7 +7579,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7731,7 +7675,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7758,7 +7702,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7774,7 +7718,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8025,7 +7969,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -8038,7 +7984,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -8075,7 +8021,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154795</v>
+        <v>20154338</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8099,7 +8045,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8115,7 +8061,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8130,7 +8076,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -8144,7 +8092,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -8158,7 +8108,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -8179,7 +8131,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -8188,14 +8142,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -8205,13 +8163,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -8306,7 +8268,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8332,7 +8294,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2012</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -8346,7 +8310,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -8597,7 +8563,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -8611,7 +8577,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -8648,7 +8614,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154337</v>
+        <v>20154330</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8672,7 +8638,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8688,7 +8654,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8704,7 +8670,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8720,7 +8686,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8736,7 +8702,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8751,9 +8717,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>92</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8761,7 +8725,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8772,7 +8736,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8781,7 +8745,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8793,7 +8757,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8801,7 +8765,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8897,7 +8861,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8924,7 +8888,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -8940,7 +8904,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9191,7 +9155,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -9204,7 +9170,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -9241,7 +9207,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154499</v>
+        <v>20154332</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9265,7 +9231,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9281,7 +9247,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9296,7 +9262,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -9310,7 +9278,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>195</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -9324,7 +9294,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>196</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -9345,7 +9317,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>147</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -9354,14 +9328,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -9371,13 +9349,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>197</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -9472,7 +9454,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9498,7 +9480,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2011</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -9512,7 +9496,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>125</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -9763,7 +9749,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -9777,7 +9763,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -9814,7 +9800,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154327</v>
+        <v>20154324</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9838,7 +9824,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9854,7 +9840,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9870,7 +9856,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9886,7 +9872,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9902,7 +9888,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9917,9 +9903,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>200</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9927,7 +9911,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9938,7 +9922,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9947,7 +9931,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9959,7 +9943,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9967,7 +9951,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10063,7 +10047,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10090,7 +10074,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10106,7 +10090,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10358,7 +10342,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -10372,7 +10356,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -10409,7 +10393,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154330</v>
+        <v>20154316</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10433,7 +10417,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10449,7 +10433,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10465,7 +10449,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10481,7 +10465,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10497,7 +10481,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10512,9 +10496,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10522,7 +10504,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10533,7 +10515,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10542,7 +10524,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10554,7 +10536,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10562,7 +10544,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10658,7 +10640,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10685,7 +10667,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10701,7 +10683,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10953,7 +10935,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -10967,7 +10949,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -11004,7 +10986,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154332</v>
+        <v>20154314</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11028,7 +11010,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11044,7 +11026,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11060,7 +11042,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11076,7 +11058,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11092,7 +11074,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11107,9 +11089,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>132</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11117,7 +11097,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11128,7 +11108,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11137,7 +11117,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11149,7 +11129,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11157,7 +11137,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11253,7 +11233,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11280,7 +11260,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11296,7 +11276,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11548,7 +11528,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -11562,7 +11542,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -11599,7 +11579,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154324</v>
+        <v>20154331</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11623,7 +11603,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11639,7 +11619,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11655,7 +11635,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11671,7 +11651,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11687,7 +11667,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11702,9 +11682,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>92</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11712,7 +11690,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11723,7 +11701,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11732,7 +11710,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11744,7 +11722,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11752,7 +11730,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11848,7 +11826,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11891,7 +11869,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12143,7 +12121,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -12157,7 +12135,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -12194,7 +12172,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154316</v>
+        <v>20154333</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12218,7 +12196,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12234,7 +12212,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12250,7 +12228,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12266,7 +12244,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12282,7 +12260,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12297,9 +12275,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>132</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12307,7 +12283,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12318,7 +12294,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12327,7 +12303,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12339,7 +12315,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>230</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12347,7 +12323,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12443,7 +12419,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12470,7 +12446,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12486,7 +12462,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>151</v>
+        <v>237</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12738,7 +12714,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -12752,7 +12728,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -12789,7 +12765,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154314</v>
+        <v>20154341</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12813,7 +12789,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12829,7 +12805,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12845,7 +12821,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12861,7 +12837,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12877,7 +12853,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12892,9 +12868,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>238</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12902,7 +12876,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12913,7 +12887,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12922,7 +12896,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12934,7 +12908,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12942,7 +12916,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13038,7 +13012,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13065,7 +13039,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13081,7 +13055,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>86</v>
+        <v>237</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13333,7 +13307,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -13347,7 +13321,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -13384,7 +13358,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154331</v>
+        <v>20154321</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13408,7 +13382,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13424,7 +13398,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13440,7 +13414,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13456,7 +13430,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13472,7 +13446,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13487,9 +13461,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>246</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13497,7 +13469,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13508,7 +13480,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13517,7 +13489,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13529,7 +13501,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13537,7 +13509,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13633,7 +13605,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13660,7 +13632,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13676,7 +13648,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>249</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13928,7 +13900,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -13942,7 +13914,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -13979,7 +13951,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154333</v>
+        <v>20154325</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14003,7 +13975,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14019,7 +13991,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14035,7 +14007,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14051,7 +14023,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14067,7 +14039,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14082,9 +14054,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>238</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14092,7 +14062,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14103,7 +14073,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14112,7 +14082,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14124,7 +14094,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14132,7 +14102,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14228,7 +14198,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14255,7 +14225,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14271,7 +14241,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14523,7 +14493,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -14537,7 +14507,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -14574,7 +14544,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154338</v>
+        <v>20154334</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14598,7 +14568,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14614,7 +14584,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14630,7 +14600,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14646,7 +14616,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14662,7 +14632,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14677,9 +14647,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14687,7 +14655,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14698,7 +14666,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14707,7 +14675,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14719,7 +14687,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14727,7 +14695,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14823,7 +14791,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14850,7 +14818,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14866,7 +14834,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15118,7 +15086,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -15132,7 +15100,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -15169,7 +15137,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154341</v>
+        <v>20154313</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15193,7 +15161,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15209,7 +15177,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15224,9 +15192,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>260</v>
-      </c>
+      <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -15240,9 +15206,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>261</v>
-      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -15256,9 +15220,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>262</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -15272,18 +15234,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>238</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>158</v>
-      </c>
+      <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -15292,18 +15250,14 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>54</v>
-      </c>
+      <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>55</v>
-      </c>
+      <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -15313,17 +15267,13 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>56</v>
-      </c>
+      <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>263</v>
-      </c>
+      <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -15418,7 +15368,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15444,9 +15394,7 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
+      <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -15460,9 +15408,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>257</v>
-      </c>
+      <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -15713,7 +15659,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -15727,7 +15673,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -15764,7 +15710,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154321</v>
+        <v>20154326</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15788,7 +15734,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15804,7 +15750,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15820,7 +15766,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15836,7 +15782,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15852,7 +15798,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15867,9 +15813,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>157</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15877,7 +15821,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15888,7 +15832,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15897,7 +15841,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15909,7 +15853,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15917,7 +15861,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16013,7 +15957,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16040,7 +15984,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16056,7 +16000,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16259,1769 +16203,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154325</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154313</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154326</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -18045,7 +16226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18127,7 +16308,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -18141,7 +16322,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -18178,7 +16359,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154334</v>
+        <v>20154340</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18202,7 +16383,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18218,7 +16399,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18234,7 +16415,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18250,7 +16431,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18266,7 +16447,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18281,9 +16462,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18291,7 +16470,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18302,7 +16481,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18311,7 +16490,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18323,7 +16502,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18331,7 +16510,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18427,7 +16606,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18454,7 +16633,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -18470,7 +16649,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18722,7 +16901,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -18736,7 +16915,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -18773,7 +16952,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154340</v>
+        <v>20154328</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18797,7 +16976,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18813,7 +16992,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18829,7 +17008,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18845,7 +17024,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18861,7 +17040,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18876,9 +17055,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18886,7 +17063,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18897,7 +17074,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18906,7 +17083,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18918,15 +17095,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>75</v>
+      <c r="H17" s="20">
+        <v>50159528</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19022,7 +17199,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19049,7 +17226,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19065,7 +17242,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19317,7 +17494,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -19331,7 +17508,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -19368,7 +17545,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154328</v>
+        <v>20154319</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19392,7 +17569,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19408,7 +17585,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19424,7 +17601,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19440,7 +17617,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19456,7 +17633,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19471,9 +17648,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>83</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19481,7 +17656,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19492,7 +17667,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19501,7 +17676,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19513,15 +17688,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>50159528</v>
+      <c r="H17" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19617,7 +17792,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19644,7 +17819,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19660,7 +17835,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19912,7 +18087,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -19926,7 +18101,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -19963,7 +18138,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154319</v>
+        <v>20154317</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19987,7 +18162,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20003,7 +18178,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20019,7 +18194,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20034,9 +18209,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -20066,9 +18239,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>92</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20076,7 +18247,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20087,7 +18258,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20096,7 +18267,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20108,7 +18279,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20116,7 +18287,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20212,7 +18383,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20239,7 +18410,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -20255,7 +18426,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20507,7 +18678,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -20521,7 +18692,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -20558,7 +18729,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154317</v>
+        <v>20154322</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20582,7 +18753,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20598,7 +18769,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20614,7 +18785,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20629,7 +18800,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -20659,9 +18832,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>92</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20669,7 +18840,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20680,7 +18851,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20689,7 +18860,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20701,7 +18872,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20832,7 +19003,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -21100,7 +19271,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -21114,7 +19285,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -21151,7 +19322,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154322</v>
+        <v>20154315</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -21254,9 +19425,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21264,7 +19433,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21275,7 +19444,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21284,7 +19453,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21296,15 +19465,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>108</v>
+      <c r="H17" s="20">
+        <v>4010</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21400,7 +19569,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21443,7 +19612,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
